--- a/medicine/Sexualité et sexologie/Syndicat_du_travail_sexuel/Syndicat_du_travail_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Syndicat_du_travail_sexuel/Syndicat_du_travail_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Syndicat du travail sexuel (acronyme STRASS) est un syndicat qui existe en France depuis le 20 mars 2009[2]. Il défend les droits des travailleurs du sexe, c'est-à-dire principalement  des prostitués mais aussi des acteurs pornographiques ou encore les opérateurs de téléphone rose[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Syndicat du travail sexuel (acronyme STRASS) est un syndicat qui existe en France depuis le 20 mars 2009. Il défend les droits des travailleurs du sexe, c'est-à-dire principalement  des prostitués mais aussi des acteurs pornographiques ou encore les opérateurs de téléphone rose.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le STRASS a été créé en tant qu'association loi de 1901 lors des assises de la prostitution qui se sont tenues en mars 2009 au théâtre de l'Odéon, à Paris[4].
-Le syndicat, dont certains représentants affirmaient quelques jours après sa création que ses fédérations comptaient en France entre cent[2] et deux cents adhérents[3], a été conçu comme un outil au service de l’auto-organisation des travailleurs du sexe. Sa principale priorité, d'après Malika Amaouche, membre du collectif Droits et prostitution et coordinatrice des Assises de la prostitution de 2009, était alors l'abrogation de la loi pour la sécurité intérieure de 2003, qui interdisait le racolage passif[5],[6].
-Il a également pour objectif de lutter contre la discrimination et la marginalisation dont souffrent les travailleurs du sexe, en revendiquant notamment des statuts professionnels permettant d'assurer leur protection sociale et leur retraite[3].
-Il cherche aussi à permettre aux travailleurs du sexe de reprendre la parole dans le débat public sur leur activité professionnelle, selon son trésorier Maîtresse Nikita[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le STRASS a été créé en tant qu'association loi de 1901 lors des assises de la prostitution qui se sont tenues en mars 2009 au théâtre de l'Odéon, à Paris.
+Le syndicat, dont certains représentants affirmaient quelques jours après sa création que ses fédérations comptaient en France entre cent et deux cents adhérents, a été conçu comme un outil au service de l’auto-organisation des travailleurs du sexe. Sa principale priorité, d'après Malika Amaouche, membre du collectif Droits et prostitution et coordinatrice des Assises de la prostitution de 2009, était alors l'abrogation de la loi pour la sécurité intérieure de 2003, qui interdisait le racolage passif,.
+Il a également pour objectif de lutter contre la discrimination et la marginalisation dont souffrent les travailleurs du sexe, en revendiquant notamment des statuts professionnels permettant d'assurer leur protection sociale et leur retraite.
+Il cherche aussi à permettre aux travailleurs du sexe de reprendre la parole dans le débat public sur leur activité professionnelle, selon son trésorier Maîtresse Nikita.
 </t>
         </is>
       </c>
@@ -547,12 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santé
-En 2017, le STRASS annonce la mise en place d’une mutuelle pour les prostituées en partenariat avec la Mutuelle de Prévoyance interprofessionnelle[7],[8],[9]. « C'est un geste politique qui nous ancre dans la société », s'est réjouie Axelle de Sade, porteuse de ce projet au sein du syndicat[10].En 2021, le partenariat est rompu et c'est la PMIF qui devient le partenaire du STRASS. 
-Loi de pénalisation des clients
-Le STRASS prend position contre le projet de loi de pénalisation des clients de prostitués[11], appelant ainsi à la manifestation du 4 décembre 2013, qui a rassemblé environ 200 prostitué(e)s[12]. Sa secrétaire générale en 2011, Morgane Merteuil avait par avance écrit : « Nous sommes prosexe, proporno, proputes, et pour la liberté de porter le voile[13] », tout en jugeant abject et antiféministe le « Manifeste des 343 salauds »[14].
-Le 5 juin 2017[15], une question prioritaire de constitutionnalité (QPC) est déposée par le STRASS et huit autres associations (dont Médecins du monde) et cinq travailleuses du sexe, contre la loi visant à pénaliser les clients de la prostitution. Selon leur avocat Patrice Spinosi : « Notre objectif est de démontrer que la loi qui devait davantage protéger les prostituées n'a pas rempli ses objectifs, bien au contraire, elle est contre-productive[16]. »
-En février 2019, le Conseil constitutionnel ne censure pas la loi contre la prostitution, jugeant  qu'elle n'est pas contraire à la liberté d'entreprendre et au droit au respect de la vie privée[17].
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, le STRASS annonce la mise en place d’une mutuelle pour les prostituées en partenariat avec la Mutuelle de Prévoyance interprofessionnelle. « C'est un geste politique qui nous ancre dans la société », s'est réjouie Axelle de Sade, porteuse de ce projet au sein du syndicat.En 2021, le partenariat est rompu et c'est la PMIF qui devient le partenaire du STRASS. 
 </t>
         </is>
       </c>
@@ -578,12 +593,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Interventions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Loi de pénalisation des clients</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le STRASS prend position contre le projet de loi de pénalisation des clients de prostitués, appelant ainsi à la manifestation du 4 décembre 2013, qui a rassemblé environ 200 prostitué(e)s. Sa secrétaire générale en 2011, Morgane Merteuil avait par avance écrit : « Nous sommes prosexe, proporno, proputes, et pour la liberté de porter le voile », tout en jugeant abject et antiféministe le « Manifeste des 343 salauds ».
+Le 5 juin 2017, une question prioritaire de constitutionnalité (QPC) est déposée par le STRASS et huit autres associations (dont Médecins du monde) et cinq travailleuses du sexe, contre la loi visant à pénaliser les clients de la prostitution. Selon leur avocat Patrice Spinosi : « Notre objectif est de démontrer que la loi qui devait davantage protéger les prostituées n'a pas rempli ses objectifs, bien au contraire, elle est contre-productive. »
+En février 2019, le Conseil constitutionnel ne censure pas la loi contre la prostitution, jugeant  qu'elle n'est pas contraire à la liberté d'entreprendre et au droit au respect de la vie privée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndicat_du_travail_sexuel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndicat_du_travail_sexuel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2020, un texte collectif publié dans le journal L'Humanité dénonce le STRASS en le décrivant comme une instance corporatiste confondant défense des droits des prostituées et intérêts des proxénètes éventuels. Ce texte est entre autres cosigné par des syndicalistes de la Confédération générale du travail, des représentants du Parti communiste français, du Parti de gauche, Nathalie Arthaud, ainsi que des membres d'organisations féministes abolitionnistes[18].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2020, un texte collectif publié dans le journal L'Humanité dénonce le STRASS en le décrivant comme une instance corporatiste confondant défense des droits des prostituées et intérêts des proxénètes éventuels. Ce texte est entre autres cosigné par des syndicalistes de la Confédération générale du travail, des représentants du Parti communiste français, du Parti de gauche, Nathalie Arthaud, ainsi que des membres d'organisations féministes abolitionnistes.
 </t>
         </is>
       </c>
